--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\Winner_determination\dataset_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8CBA9-363C-480B-9594-EBD554F09CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_Winner_dataset_10_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="21.88671875" customWidth="1"/>
+    <col min="22" max="22" width="24.109375" customWidth="1"/>
+    <col min="23" max="23" width="19.109375" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.77734375" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +743,19 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>826.9910076585455</v>
+        <v>826.99100765854553</v>
       </c>
       <c r="H2">
-        <v>164.805640853598</v>
+        <v>164.80564085359799</v>
       </c>
       <c r="I2">
-        <v>662.1853668049475</v>
+        <v>662.18536680494753</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>662.18536680494742</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -666,22 +767,22 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>826.99100765854553</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>164.80564085359811</v>
       </c>
       <c r="Q2">
         <v>1.613026976146464</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>396.34942228698799</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>5.0179775605689789</v>
       </c>
       <c r="T2">
-        <v>5.017977560568981</v>
+        <v>5.0179775605689807</v>
       </c>
       <c r="U2">
         <v>1.613026976146464</v>
@@ -690,19 +791,19 @@
         <v>396.3494222869881</v>
       </c>
       <c r="W2">
-        <v>282.1084700126185</v>
+        <v>282.10847001261851</v>
       </c>
       <c r="X2">
-        <v>944.293836817566</v>
+        <v>944.29383681756599</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>282.10847001261862</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,10 +826,10 @@
         <v>906.9367325802865</v>
       </c>
       <c r="H3">
-        <v>127.0224921966227</v>
+        <v>127.02249219662269</v>
       </c>
       <c r="I3">
-        <v>779.9142403836638</v>
+        <v>779.91424038366381</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,46 +844,46 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9700737331220458</v>
+        <v>0.97007373312204581</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>929.51783756311954</v>
       </c>
       <c r="P3">
         <v>125.543651112756</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.0020124817413998</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>552.63422991923846</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>7.4039414126030234</v>
       </c>
       <c r="T3">
-        <v>7.139969598269307</v>
+        <v>7.1399695982693068</v>
       </c>
       <c r="U3">
-        <v>1.965708518396953</v>
+        <v>1.9657085183969529</v>
       </c>
       <c r="V3">
-        <v>530.2250454447521</v>
+        <v>530.22504544475214</v>
       </c>
       <c r="W3">
-        <v>175.3261902629496</v>
+        <v>175.32619026294961</v>
       </c>
       <c r="X3">
-        <v>955.2404306466134</v>
+        <v>955.24043064661339</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>151.26624419624989</v>
       </c>
       <c r="Z3">
-        <v>1.159056940922555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>1.1590569409225551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>996.6483001965246</v>
+        <v>996.64830019652459</v>
       </c>
       <c r="H4">
         <v>104.5202190496242</v>
@@ -814,7 +915,7 @@
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>911.58057028795804</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -823,25 +924,25 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9786607023283604</v>
+        <v>0.97866070232836044</v>
       </c>
       <c r="O4">
         <v>1040.112745087449</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>128.53217479949149</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.0909051344593221</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>642.83198605647817</v>
       </c>
       <c r="S4">
         <v>8.092236412478135</v>
       </c>
       <c r="T4">
-        <v>9.535459351872722</v>
+        <v>9.5354593518727224</v>
       </c>
       <c r="U4">
         <v>2.255017413232598</v>
@@ -850,19 +951,19 @@
         <v>656.4331671551123</v>
       </c>
       <c r="W4">
-        <v>233.580473471828</v>
+        <v>233.58047347182799</v>
       </c>
       <c r="X4">
-        <v>1125.708554618728</v>
+        <v>1125.7085546187279</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>214.12798433077029</v>
       </c>
       <c r="Z4">
-        <v>1.090845151332526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>1.0908451513325259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +983,19 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>963.432409857581</v>
+        <v>963.43240985758098</v>
       </c>
       <c r="H5">
-        <v>159.7821878338804</v>
+        <v>159.78218783388041</v>
       </c>
       <c r="I5">
-        <v>803.6502220237005</v>
+        <v>803.65022202370051</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>803.65022202370096</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -903,46 +1004,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9999999999999994</v>
+        <v>0.99999999999999944</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>963.43240985758109</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>159.78218783388041</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>1.7966907730034529</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>516.57103945226299</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>6.0296608959893936</v>
       </c>
       <c r="T5">
-        <v>6.029660895989394</v>
+        <v>6.0296608959893936</v>
       </c>
       <c r="U5">
-        <v>1.796690773003453</v>
+        <v>1.7966907730034529</v>
       </c>
       <c r="V5">
-        <v>516.571039452263</v>
+        <v>516.57103945226299</v>
       </c>
       <c r="W5">
-        <v>241.542671665246</v>
+        <v>241.54267166524599</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>241.54267166524551</v>
       </c>
       <c r="Z5">
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1063,19 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>987.1771066683214</v>
+        <v>987.17710666832136</v>
       </c>
       <c r="H6">
-        <v>138.4708632166977</v>
+        <v>138.47086321669769</v>
       </c>
       <c r="I6">
-        <v>848.7062434516237</v>
+        <v>848.70624345162366</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>848.70624345162378</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -983,46 +1084,46 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>987.17710666832136</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>138.47086321669769</v>
       </c>
       <c r="Q6">
         <v>1.964189533107382</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>576.72322328104201</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>7.1291323223966234</v>
       </c>
       <c r="T6">
-        <v>7.129132322396623</v>
+        <v>7.1291323223966234</v>
       </c>
       <c r="U6">
         <v>1.964189533107382</v>
       </c>
       <c r="V6">
-        <v>576.723223281042</v>
+        <v>576.72322328104201</v>
       </c>
       <c r="W6">
-        <v>179.3224487962221</v>
+        <v>179.32244879622209</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>179.32244879622201</v>
       </c>
       <c r="Z6">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1048,13 +1149,13 @@
         <v>125.733076056684</v>
       </c>
       <c r="I7">
-        <v>889.604314214197</v>
+        <v>889.60431421419696</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>889.60431421419707</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1063,7 +1164,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O7">
         <v>1015.337390270881</v>
@@ -1072,22 +1173,22 @@
         <v>125.733076056684</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.0888150245692829</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>626.97117586168281</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>8.0753404125191217</v>
       </c>
       <c r="T7">
-        <v>8.075340412519123</v>
+        <v>8.0753404125191235</v>
       </c>
       <c r="U7">
-        <v>2.088815024569284</v>
+        <v>2.0888150245692838</v>
       </c>
       <c r="V7">
-        <v>626.9711758616829</v>
+        <v>626.97117586168292</v>
       </c>
       <c r="W7">
         <v>160.9540012449155</v>
@@ -1096,13 +1197,13 @@
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>160.95400124491539</v>
       </c>
       <c r="Z7">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1223,19 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>967.4018896866091</v>
+        <v>967.40188968660914</v>
       </c>
       <c r="H8">
         <v>120.6424136739669</v>
       </c>
       <c r="I8">
-        <v>846.7594760126423</v>
+        <v>846.75947601264227</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>872.29691576838309</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1143,46 +1244,46 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9707239137338396</v>
+        <v>0.97072391373383959</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>991.37861793614763</v>
       </c>
       <c r="P8">
         <v>119.0817021677646</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>2.1192866874425729</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>619.92864964623811</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>8.3251969016992575</v>
       </c>
       <c r="T8">
-        <v>8.018754434911994</v>
+        <v>8.0187544349119939</v>
       </c>
       <c r="U8">
-        <v>2.081783102449403</v>
+        <v>2.0817831024494029</v>
       </c>
       <c r="V8">
-        <v>595.6081377874672</v>
+        <v>595.60813778746717</v>
       </c>
       <c r="W8">
-        <v>255.6192397671065</v>
+        <v>255.61923976710651</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>230.08180001136569</v>
       </c>
       <c r="Z8">
-        <v>1.110992871902425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.1109928719024249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,16 +1306,16 @@
         <v>1003.106052339646</v>
       </c>
       <c r="H9">
-        <v>255.9466994265325</v>
+        <v>255.94669942653249</v>
       </c>
       <c r="I9">
-        <v>747.1593529131135</v>
+        <v>747.15935291311348</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>775.95357132707659</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1226,7 +1327,7 @@
         <v>0.9628918282253438</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>979.66741774945137</v>
       </c>
       <c r="P9">
         <v>203.7138464223749</v>
@@ -1238,31 +1339,31 @@
         <v>456.0216174398542</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.8090369651075893</v>
       </c>
       <c r="T9">
-        <v>3.919199015213633</v>
+        <v>3.9191990152136329</v>
       </c>
       <c r="U9">
         <v>1.365887300069905</v>
       </c>
       <c r="V9">
-        <v>397.5650066716036</v>
+        <v>397.56500667160361</v>
       </c>
       <c r="W9">
-        <v>315.1377822000877</v>
+        <v>315.13778220008771</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>286.34356378612461</v>
       </c>
       <c r="Z9">
         <v>1.100558287510419</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>844.7574702846596</v>
+        <v>844.75747028465958</v>
       </c>
       <c r="H10">
         <v>207.4375638342257</v>
@@ -1294,7 +1395,7 @@
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>682.75617407377081</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1303,46 +1404,46 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9334516927877278</v>
+        <v>0.93345169278772777</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>877.29036031154374</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>194.53418623777279</v>
       </c>
       <c r="Q10">
         <v>1.506230108837336</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>389.74292556426781</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>4.5096976386415717</v>
       </c>
       <c r="T10">
-        <v>4.072345696075326</v>
+        <v>4.0723456960753257</v>
       </c>
       <c r="U10">
         <v>1.404219171537531</v>
       </c>
       <c r="V10">
-        <v>346.0321024173738</v>
+        <v>346.03210241737378</v>
       </c>
       <c r="W10">
-        <v>329.4784890460564</v>
+        <v>329.47848904605638</v>
       </c>
       <c r="X10">
-        <v>966.7983954964903</v>
+        <v>966.79839549649034</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>284.04222142271948</v>
       </c>
       <c r="Z10">
-        <v>1.159963076600916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1.1599630766009159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1374,7 +1475,7 @@
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>752.27328686699843</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1383,46 +1484,46 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.942448383052943</v>
+        <v>0.94244838305294298</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>877.92266137096135</v>
       </c>
       <c r="P11">
         <v>125.6493745039628</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.9440632188615601</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>508.00295942088309</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>6.9870834203259253</v>
       </c>
       <c r="T11">
-        <v>5.18623607783279</v>
+        <v>5.1862360778327901</v>
       </c>
       <c r="U11">
         <v>1.646008208223215</v>
       </c>
       <c r="V11">
-        <v>430.2116574392682</v>
+        <v>430.21165743926821</v>
       </c>
       <c r="W11">
-        <v>309.8041706894763</v>
+        <v>309.80417068947628</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>266.50962664420331</v>
       </c>
       <c r="Z11">
-        <v>1.162450207110426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>1.1624502071104259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1543,19 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>936.2690247768339</v>
+        <v>936.26902477683393</v>
       </c>
       <c r="H12">
-        <v>163.2592734413099</v>
+        <v>163.25927344130989</v>
       </c>
       <c r="I12">
-        <v>773.009751335524</v>
+        <v>773.00975133552402</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>779.33574134012997</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1463,46 +1564,46 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.9918828437231328</v>
+        <v>0.99188284372313285</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>907.31846471188135</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>127.98272337175131</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>1.9585982260919199</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>528.66900637380513</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>7.0893823854364646</v>
       </c>
       <c r="T12">
-        <v>5.734859680809575</v>
+        <v>5.7348596808095751</v>
       </c>
       <c r="U12">
         <v>1.746563283117156</v>
       </c>
       <c r="V12">
-        <v>487.8670987145481</v>
+        <v>487.86709871454809</v>
       </c>
       <c r="W12">
-        <v>206.9120393115713</v>
+        <v>206.91203931157131</v>
       </c>
       <c r="X12">
-        <v>979.9217906470953</v>
+        <v>979.92179064709535</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>200.58604930696541</v>
       </c>
       <c r="Z12">
-        <v>1.031537537263746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.0315375372637461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1623,19 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>985.2958926698568</v>
+        <v>985.29589266985681</v>
       </c>
       <c r="H13">
         <v>131.3499573540503</v>
       </c>
       <c r="I13">
-        <v>853.9459353158065</v>
+        <v>853.94593531580654</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>878.80625999264498</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1543,46 +1644,46 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9717112567256331</v>
+        <v>0.97171125672563308</v>
       </c>
       <c r="O13">
         <v>1010.403077700276</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>131.59681770763149</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.0383617800074072</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>610.56433640680666</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>7.6780206033939784</v>
       </c>
       <c r="T13">
-        <v>7.50130348359397</v>
+        <v>7.5013034835939703</v>
       </c>
       <c r="U13">
-        <v>2.015076803253704</v>
+        <v>2.0150768032537041</v>
       </c>
       <c r="V13">
-        <v>589.2656831432965</v>
+        <v>589.26568314329654</v>
       </c>
       <c r="W13">
-        <v>220.4441123628631</v>
+        <v>220.44411236286311</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>195.58378768602461</v>
       </c>
       <c r="Z13">
         <v>1.127108309798905</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1703,19 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>940.059277111855</v>
+        <v>940.05927711185495</v>
       </c>
       <c r="H14">
         <v>151.0564807521973</v>
       </c>
       <c r="I14">
-        <v>789.0027963596576</v>
+        <v>789.00279635965762</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>844.54546540224578</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1623,46 +1724,46 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.9342336542933969</v>
+        <v>0.93423365429339689</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>1041.6842614894531</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>197.13879608720691</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>1.6646861350634981</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>516.37124487276242</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>5.2840145225836226</v>
       </c>
       <c r="T14">
-        <v>6.223230360132566</v>
+        <v>6.2232303601325656</v>
       </c>
       <c r="U14">
-        <v>1.828289122438919</v>
+        <v>1.8282891224389191</v>
       </c>
       <c r="V14">
-        <v>512.8278757265114</v>
+        <v>512.82787572651137</v>
       </c>
       <c r="W14">
-        <v>275.8566055132728</v>
+        <v>275.85660551327283</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>220.31393647068469</v>
       </c>
       <c r="Z14">
-        <v>1.252106924928822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>1.2521069249288219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1783,19 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>1095.641849524988</v>
+        <v>1095.6418495249879</v>
       </c>
       <c r="H15">
         <v>163.636083495897</v>
       </c>
       <c r="I15">
-        <v>932.0057660290914</v>
+        <v>932.00576602909143</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>932.00576602909166</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1703,46 +1804,46 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>1095.6418495249879</v>
       </c>
       <c r="P15">
         <v>163.636083495897</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>1.9014506753584759</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>620.85982455280214</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>6.6956005430945229</v>
       </c>
       <c r="T15">
-        <v>6.695600543094523</v>
+        <v>6.6956005430945229</v>
       </c>
       <c r="U15">
-        <v>1.901450675358476</v>
+        <v>1.9014506753584759</v>
       </c>
       <c r="V15">
-        <v>620.8598245528021</v>
+        <v>620.85982455280214</v>
       </c>
       <c r="W15">
-        <v>215.54300717493</v>
+        <v>215.54300717493001</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>215.54300717492981</v>
       </c>
       <c r="Z15">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1863,19 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>962.6431698152363</v>
+        <v>962.64316981523632</v>
       </c>
       <c r="H16">
-        <v>243.0690384406195</v>
+        <v>243.06903844061949</v>
       </c>
       <c r="I16">
-        <v>719.5741313746169</v>
+        <v>719.57413137461685</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>780.94533051911424</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1783,13 +1884,13 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.921414218452779</v>
+        <v>0.92141421845277904</v>
       </c>
       <c r="O16">
         <v>1028.066037583965</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>247.12070706485039</v>
       </c>
       <c r="Q16">
         <v>1.425557773019891</v>
@@ -1798,31 +1899,31 @@
         <v>428.660485688645</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>4.1601776305786284</v>
       </c>
       <c r="T16">
-        <v>3.960369350168821</v>
+        <v>3.9603693501688211</v>
       </c>
       <c r="U16">
-        <v>1.376337291161642</v>
+        <v>1.3763372911616421</v>
       </c>
       <c r="V16">
         <v>385.0291494419896</v>
       </c>
       <c r="W16">
-        <v>328.6829144325056</v>
+        <v>328.68291443250558</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>267.31171528800832</v>
       </c>
       <c r="Z16">
-        <v>1.229586642240407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1.2295866422404069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,16 +1946,16 @@
         <v>1052.346607257196</v>
       </c>
       <c r="H17">
-        <v>143.2155764299567</v>
+        <v>143.21557642995671</v>
       </c>
       <c r="I17">
-        <v>909.1310308272389</v>
+        <v>909.13103082723887</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>909.13103082723842</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1869,25 +1970,25 @@
         <v>1052.346607257195</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>143.21557642995671</v>
       </c>
       <c r="Q17">
         <v>1.994426791048608</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>623.49804829986317</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>7.3479898869231768</v>
       </c>
       <c r="T17">
-        <v>7.34798988692318</v>
+        <v>7.3479898869231803</v>
       </c>
       <c r="U17">
-        <v>1.994426791048609</v>
+        <v>1.9944267910486091</v>
       </c>
       <c r="V17">
-        <v>623.4980482998635</v>
+        <v>623.49804829986351</v>
       </c>
       <c r="W17">
         <v>207.7600292672723</v>
@@ -1896,13 +1997,13 @@
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>207.76002926727281</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>959.427699264628</v>
+        <v>959.42769926462802</v>
       </c>
       <c r="H18">
-        <v>139.236406985328</v>
+        <v>139.23640698532799</v>
       </c>
       <c r="I18">
         <v>820.1912922793</v>
@@ -1934,7 +2035,7 @@
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>834.25499859572369</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,46 +2044,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9831421971218671</v>
+        <v>0.98314219712186712</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>948.70612354290938</v>
       </c>
       <c r="P18">
         <v>114.4511249471861</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.1149512055366109</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>592.19645391365088</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>8.2891812900982291</v>
       </c>
       <c r="T18">
-        <v>6.890638160217159</v>
+        <v>6.8906381602171587</v>
       </c>
       <c r="U18">
         <v>1.930163701958135</v>
       </c>
       <c r="V18">
-        <v>551.4422335251497</v>
+        <v>551.44223352514973</v>
       </c>
       <c r="W18">
-        <v>292.8298443918603</v>
+        <v>292.82984439186032</v>
       </c>
       <c r="X18">
-        <v>1113.02113667116</v>
+        <v>1113.0211366711601</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>278.76613807543657</v>
       </c>
       <c r="Z18">
         <v>1.050449837320693</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2103,19 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>832.7042588829502</v>
+        <v>832.70425888295017</v>
       </c>
       <c r="H19">
-        <v>120.0768846569133</v>
+        <v>120.07688465691329</v>
       </c>
       <c r="I19">
-        <v>712.6273742260369</v>
+        <v>712.62737422603686</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>787.21332465510716</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2023,46 +2124,46 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.9052531911070639</v>
+        <v>0.90525319110706393</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>955.02331232131485</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>167.80998766620769</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.7389034374759369</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>495.40796025954398</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>5.6910993535197676</v>
       </c>
       <c r="T19">
-        <v>6.934759019291461</v>
+        <v>6.9347590192914614</v>
       </c>
       <c r="U19">
         <v>1.93654630468309</v>
       </c>
       <c r="V19">
-        <v>480.0929269658337</v>
+        <v>480.09292696583373</v>
       </c>
       <c r="W19">
-        <v>329.2222489283918</v>
+        <v>329.22224892839182</v>
       </c>
       <c r="X19">
-        <v>1041.849623154429</v>
+        <v>1041.8496231544291</v>
       </c>
       <c r="Y19">
         <v>254.6362984993215</v>
       </c>
       <c r="Z19">
-        <v>1.29291169746276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>1.2929116974627599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2085,16 +2186,16 @@
         <v>1027.540691428226</v>
       </c>
       <c r="H20">
-        <v>148.4376389942235</v>
+        <v>148.43763899422351</v>
       </c>
       <c r="I20">
-        <v>879.1030524340026</v>
+        <v>879.10305243400262</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>879.10305243400251</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2109,40 +2210,40 @@
         <v>1027.540691428226</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>148.43763899422359</v>
       </c>
       <c r="Q20">
         <v>1.934758617338814</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>591.91205125250053</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>6.9223729128985463</v>
       </c>
       <c r="T20">
-        <v>6.922372912898547</v>
+        <v>6.9223729128985472</v>
       </c>
       <c r="U20">
         <v>1.934758617338814</v>
       </c>
       <c r="V20">
-        <v>591.9120512525005</v>
+        <v>591.91205125250053</v>
       </c>
       <c r="W20">
-        <v>185.4331663164301</v>
+        <v>185.43316631643009</v>
       </c>
       <c r="X20">
-        <v>1064.536218750433</v>
+        <v>1064.5362187504329</v>
       </c>
       <c r="Y20">
         <v>185.4331663164302</v>
       </c>
       <c r="Z20">
-        <v>0.9999999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2263,19 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>721.5663182686798</v>
+        <v>721.56631826867977</v>
       </c>
       <c r="H21">
-        <v>136.0931577316011</v>
+        <v>136.09315773160111</v>
       </c>
       <c r="I21">
-        <v>585.4731605370787</v>
+        <v>585.47316053707868</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>743.76067686819317</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2186,43 +2287,43 @@
         <v>0.7871795037650724</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>912.62838126627344</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>168.86770439808021</v>
       </c>
       <c r="Q21">
         <v>1.687213173207651</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>458.84486147841659</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>5.4043985765027589</v>
       </c>
       <c r="T21">
-        <v>5.302002909593232</v>
+        <v>5.3020029095932317</v>
       </c>
       <c r="U21">
         <v>1.668084656639454</v>
       </c>
       <c r="V21">
-        <v>358.4582522513817</v>
+        <v>358.45825225138168</v>
       </c>
       <c r="W21">
-        <v>411.7448027035501</v>
+        <v>411.74480270355008</v>
       </c>
       <c r="X21">
-        <v>997.2179632406288</v>
+        <v>997.21796324062882</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>253.45728637243559</v>
       </c>
       <c r="Z21">
-        <v>1.624513576218611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.6245135762186109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,13 +2343,13 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>969.6339160770864</v>
+        <v>969.63391607708638</v>
       </c>
       <c r="H22">
-        <v>21.72204480212161</v>
+        <v>21.722044802121609</v>
       </c>
       <c r="I22">
-        <v>947.9118712749648</v>
+        <v>947.91187127496482</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,46 +2364,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9472210053735373</v>
+        <v>0.94722100537353726</v>
       </c>
       <c r="O22">
         <v>1036.769731819194</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>36.040370986286213</v>
       </c>
       <c r="Q22">
         <v>3.359225404900346</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>879.66163101374184</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>28.766899547557301</v>
       </c>
       <c r="T22">
-        <v>44.63824308024545</v>
+        <v>44.638243080245452</v>
       </c>
       <c r="U22">
-        <v>3.798590959777145</v>
+        <v>3.7985909597771448</v>
       </c>
       <c r="V22">
-        <v>865.3987082617516</v>
+        <v>865.39870826175161</v>
       </c>
       <c r="W22">
-        <v>88.85786054422988</v>
+        <v>88.857860544229879</v>
       </c>
       <c r="X22">
-        <v>1036.769731819195</v>
+        <v>1036.7697318191949</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>36.040370986286348</v>
       </c>
       <c r="Z22">
-        <v>2.465509042014052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>2.4655090420140522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2325,7 +2426,7 @@
         <v>1011.411420017211</v>
       </c>
       <c r="H23">
-        <v>32.38513935194946</v>
+        <v>32.385139351949462</v>
       </c>
       <c r="I23">
         <v>979.0262806652612</v>
@@ -2334,7 +2435,7 @@
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>984.11844306353146</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2343,46 +2444,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9948256610429752</v>
+        <v>0.99482566104297521</v>
       </c>
       <c r="O23">
         <v>1022.390911310949</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>38.272468247417343</v>
       </c>
       <c r="Q23">
         <v>3.285168401042013</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>858.38693974723242</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>26.713482514416629</v>
       </c>
       <c r="T23">
-        <v>31.23072619900051</v>
+        <v>31.230726199000511</v>
       </c>
       <c r="U23">
         <v>3.441402424274731</v>
       </c>
       <c r="V23">
-        <v>867.5759835889874</v>
+        <v>867.57598358898736</v>
       </c>
       <c r="W23">
-        <v>47.88157810510154</v>
+        <v>47.881578105101539</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>42.789415706831278</v>
       </c>
       <c r="Z23">
-        <v>1.1190051865433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.1190051865432999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2503,19 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>833.0764576321308</v>
+        <v>833.07645763213077</v>
       </c>
       <c r="H24">
-        <v>38.12367605988477</v>
+        <v>38.123676059884772</v>
       </c>
       <c r="I24">
-        <v>794.952781572246</v>
+        <v>794.95278157224595</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>965.22940652977513</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,16 +2524,16 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.8235894764440369</v>
+        <v>0.82358947644403691</v>
       </c>
       <c r="O24">
         <v>1023.306255524124</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>58.076848994348993</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>2.8690269749704882</v>
       </c>
       <c r="R24">
         <v>798.6053601437003</v>
@@ -2441,28 +2542,28 @@
         <v>17.61986528614344</v>
       </c>
       <c r="T24">
-        <v>21.85194461110025</v>
+        <v>21.851944611100251</v>
       </c>
       <c r="U24">
-        <v>3.084289915801184</v>
+        <v>3.0842899158011838</v>
       </c>
       <c r="V24">
-        <v>677.3683119474723</v>
+        <v>677.36831194747231</v>
       </c>
       <c r="W24">
-        <v>250.9238155179293</v>
+        <v>250.92381551792931</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>80.647190560400077</v>
       </c>
       <c r="Z24">
-        <v>3.111377021001145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>3.1113770210011449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2583,19 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>943.2721292287337</v>
+        <v>943.27212922873366</v>
       </c>
       <c r="H25">
-        <v>40.87468930226194</v>
+        <v>40.874689302261942</v>
       </c>
       <c r="I25">
-        <v>902.3974399264717</v>
+        <v>902.39743992647175</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>959.39092348409395</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2506,19 +2607,19 @@
         <v>0.9405940976065873</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>997.80730863607926</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>38.416385151985473</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.2570761148998071</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>834.26583298477033</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>25.973482530656831</v>
       </c>
       <c r="T25">
         <v>23.07716940068666</v>
@@ -2527,7 +2628,7 @@
         <v>3.138843791167452</v>
       </c>
       <c r="V25">
-        <v>774.0981751941681</v>
+        <v>774.09817519416811</v>
       </c>
       <c r="W25">
         <v>122.7037456126487</v>
@@ -2536,13 +2637,13 @@
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>65.710262055026533</v>
       </c>
       <c r="Z25">
         <v>1.86734524829463</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2663,19 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>914.2551974797884</v>
+        <v>914.25519747978842</v>
       </c>
       <c r="H26">
-        <v>28.85135963215376</v>
+        <v>28.851359632153759</v>
       </c>
       <c r="I26">
-        <v>885.4038378476347</v>
+        <v>885.40383784763469</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>958.79654238277783</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2583,19 +2684,19 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9234533070459877</v>
+        <v>0.92345330704598771</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>998.75018228464774</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>39.953639901869977</v>
       </c>
       <c r="Q26">
         <v>3.218784900095323</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>830.19436956279264</v>
       </c>
       <c r="S26">
         <v>24.99772698401636</v>
@@ -2604,10 +2705,10 @@
         <v>31.68846144986821</v>
       </c>
       <c r="U26">
-        <v>3.455952622504303</v>
+        <v>3.4559526225043031</v>
       </c>
       <c r="V26">
-        <v>785.6949058640781</v>
+        <v>785.69490586407812</v>
       </c>
       <c r="W26">
         <v>118.3307816080498</v>
@@ -2616,13 +2717,13 @@
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>44.938077072906708</v>
       </c>
       <c r="Z26">
         <v>2.633196374114366</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2648,13 +2749,13 @@
         <v>21.23645284254296</v>
       </c>
       <c r="I27">
-        <v>932.4804601518497</v>
+        <v>932.48046015184968</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>1024.1212029693841</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2663,13 +2764,13 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9105176784233868</v>
+        <v>0.91051767842338682</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>1062.7159314002349</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>38.594728430851532</v>
       </c>
       <c r="Q27">
         <v>3.315467411707961</v>
@@ -2678,13 +2779,13 @@
         <v>896.1616385931768</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>27.535261280676099</v>
       </c>
       <c r="T27">
-        <v>44.90942626180078</v>
+        <v>44.909426261800782</v>
       </c>
       <c r="U27">
-        <v>3.804647711729705</v>
+        <v>3.8046477117297051</v>
       </c>
       <c r="V27">
         <v>851.6832384392128</v>
@@ -2693,16 +2794,16 @@
         <v>147.4799761833824</v>
       </c>
       <c r="X27">
-        <v>1079.960436335232</v>
+        <v>1079.9604363352321</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>55.839233365848031</v>
       </c>
       <c r="Z27">
         <v>2.641153312709752</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2823,19 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>1040.919878118497</v>
+        <v>1040.9198781184971</v>
       </c>
       <c r="H28">
-        <v>42.30164041554472</v>
+        <v>42.301640415544718</v>
       </c>
       <c r="I28">
-        <v>998.6182377029523</v>
+        <v>998.61823770295234</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>1008.3640185711899</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2743,46 +2844,46 @@
         <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.9903350568953785</v>
+        <v>0.99033505689537848</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>1050.4337544467951</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>42.069735875604472</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.2176298379522859</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>872.99918114307343</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>24.968869725087181</v>
       </c>
       <c r="T28">
         <v>24.60708066857821</v>
       </c>
       <c r="U28">
-        <v>3.203034233578643</v>
+        <v>3.2030342335786428</v>
       </c>
       <c r="V28">
-        <v>863.1246353154287</v>
+        <v>863.12463531542869</v>
       </c>
       <c r="W28">
-        <v>59.79451344715005</v>
+        <v>59.794513447150052</v>
       </c>
       <c r="X28">
-        <v>1058.412751150102</v>
+        <v>1058.4127511501019</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>50.048732578912002</v>
       </c>
       <c r="Z28">
-        <v>1.194725827529635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1.1947258275296351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2903,19 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="H29">
-        <v>44.87088429928183</v>
+        <v>44.870884299281833</v>
       </c>
       <c r="I29">
-        <v>946.7134328577695</v>
+        <v>946.71343285776948</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>946.71343285776936</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2826,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>44.870884299281833</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.0955148565180308</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>807.81494388424096</v>
       </c>
       <c r="S29">
         <v>22.09861322418649</v>
@@ -2844,25 +2945,25 @@
         <v>22.09861322418649</v>
       </c>
       <c r="U29">
-        <v>3.095514856518031</v>
+        <v>3.0955148565180308</v>
       </c>
       <c r="V29">
-        <v>807.814943884241</v>
+        <v>807.81494388424096</v>
       </c>
       <c r="W29">
-        <v>44.87088429928178</v>
+        <v>44.870884299281776</v>
       </c>
       <c r="X29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>44.870884299281897</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>0.99999999999999745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>1036.10546198802</v>
+        <v>1036.1054619880199</v>
       </c>
       <c r="H30">
-        <v>20.80324367018</v>
+        <v>20.803243670179999</v>
       </c>
       <c r="I30">
         <v>1015.30221831784</v>
@@ -2903,46 +3004,46 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.9981740086317971</v>
+        <v>0.99817400863179706</v>
       </c>
       <c r="O30">
         <v>1055.333187833389</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>38.173644970194438</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.3194664586413252</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>890.44340878055164</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>27.645596553784191</v>
       </c>
       <c r="T30">
-        <v>49.8049957215665</v>
+        <v>49.804995721566499</v>
       </c>
       <c r="U30">
         <v>3.908115294693431</v>
       </c>
       <c r="V30">
-        <v>934.0007435511753</v>
+        <v>934.00074355117533</v>
       </c>
       <c r="W30">
-        <v>50.01039346772939</v>
+        <v>50.010393467729394</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>48.153068922375951</v>
       </c>
       <c r="Z30">
-        <v>1.038571260086195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1.0385712600861949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2965,16 +3066,16 @@
         <v>1178.020423444158</v>
       </c>
       <c r="H31">
-        <v>39.27047428628013</v>
+        <v>39.270474286280127</v>
       </c>
       <c r="I31">
-        <v>1138.749949157878</v>
+        <v>1138.7499491578781</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>1138.7499491578781</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2989,10 +3090,10 @@
         <v>1178.020423444158</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>39.270474286280141</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.4011177553604801</v>
       </c>
       <c r="R31">
         <v>1005.186441801383</v>
@@ -3001,28 +3102,71 @@
         <v>29.99761130605242</v>
       </c>
       <c r="T31">
-        <v>29.99761130605243</v>
+        <v>29.997611306052431</v>
       </c>
       <c r="U31">
-        <v>3.40111775536048</v>
+        <v>3.4011177553604801</v>
       </c>
       <c r="V31">
         <v>1005.186441801383</v>
       </c>
       <c r="W31">
-        <v>42.12203025709005</v>
+        <v>42.122030257090053</v>
       </c>
       <c r="X31">
-        <v>1180.871979414968</v>
+        <v>1180.8719794149681</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>42.122030257090053</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.10000000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.95939258033009644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.3487654777635429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.7871795037650724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>3.1113770210011449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>